--- a/exceljs/simple.xlsx
+++ b/exceljs/simple.xlsx
@@ -3,21 +3,85 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF3227A-4730-4BF9-92CB-E3717FBC76EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A95EA0-440F-4004-B6E1-7B2F552DAA04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="sdfdsfds" sheetId="2" r:id="rId2"/>
+    <sheet name="23456789" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
-  <si>
-    <t>sdsad</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/rent/commercial/275569272/</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/rent/commercial/280197595/</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/rent/commercial/278695776/</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/rent/commercial/274968953/</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/rent/commercial/278679213/</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/rent/commercial/269848324/</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/rent/commercial/282176616/</t>
+  </si>
+  <si>
+    <t>https://www.cian.ru/rent/commercial/282180153/</t>
   </si>
 </sst>
 </file>
@@ -394,67 +458,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="B3:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DDF9E7-CC65-43AB-BBEF-67E30E42FC47}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B51DB05-A93F-4D7C-8A81-256C7D08DE38}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>